--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -128,9 +128,6 @@
     <t>Residensial</t>
   </si>
   <si>
-    <t>Residensialtial</t>
-  </si>
-  <si>
     <t>Komersial dan Industri</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>bus_station</t>
+  </si>
+  <si>
+    <t>residential</t>
   </si>
   <si>
     <t>farmland</t>
@@ -528,11 +528,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -587,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -627,7 +630,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -651,7 +654,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -691,7 +694,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -704,7 +707,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>33</v>
@@ -715,7 +718,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -747,7 +750,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -771,12 +774,12 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>32</v>
@@ -784,7 +787,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -843,7 +846,7 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -875,7 +878,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -883,7 +886,7 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -899,7 +902,7 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
